--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45715C6F-FF69-4361-813A-3D7D7BFDEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEADFF0-F682-4AA2-B664-3081B5520C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemData" sheetId="1" r:id="rId1"/>
+    <sheet name="PartsItemData" sheetId="1" r:id="rId1"/>
+    <sheet name="PropItemData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +40,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dummy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Resources/Sprites/Dummy.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterPartsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanAccessory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -386,28 +423,101 @@
     <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEADFF0-F682-4AA2-B664-3081B5520C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7CDF8-5B25-40DB-B6A8-DF3287CA0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PartsItemData" sheetId="1" r:id="rId1"/>
-    <sheet name="PropItemData" sheetId="2" r:id="rId2"/>
+    <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
+    <sheet name="DropItemData" sheetId="4" r:id="rId2"/>
+    <sheet name="PartsItemData" sheetId="1" r:id="rId3"/>
+    <sheet name="PropItemData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Resources/Sprites/Dummy.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>partsType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +75,42 @@
   </si>
   <si>
     <t>UnityChanAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldIconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopIconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,11 +435,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -423,21 +570,18 @@
     <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,22 +591,16 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -471,53 +609,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7CDF8-5B25-40DB-B6A8-DF3287CA0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB5626-1090-4119-8EA3-A15A5121608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Ryo.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,15 +495,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB5626-1090-4119-8EA3-A15A5121608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1289095-F2BA-430A-9B0A-BC47E50E20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/Ryo.jpg</t>
+    <t>Assets/Resources/Sprites/Ryo.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1289095-F2BA-430A-9B0A-BC47E50E20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C6AF7-5ECF-4B60-A9CD-B572B7155648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -27,8 +27,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={96CCBD2A-FD15-4B27-BFF3-2897A9130C8B}</author>
+    <author>tc={FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}</author>
+    <author>tc={AE05160C-9E3D-41F9-9566-25019330FE76}</author>
+    <author>tc={780ED352-B9AB-4AEE-AA4E-A530552E9099}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{96CCBD2A-FD15-4B27-BFF3-2897A9130C8B}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    툴 윈도우에 보이는 아이템 이름</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 타입
+랜덤: 레시피의 여러개 중 확률에 따라 드롭 
+노말: 그 아이템만 드롭</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{AE05160C-9E3D-41F9-9566-25019330FE76}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 이미지 리소스 경로</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    랜덤: 알맞은 레시피 코드 입력
+노말: -1
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +164,22 @@
   </si>
   <si>
     <t>Assets/Resources/Sprites/Ryo.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#상점템 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#필드 배치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#무기 제외한 장비 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#무기 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +240,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="유지현" id="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,12 +509,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-06-22T16:22:40.23" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{96CCBD2A-FD15-4B27-BFF3-2897A9130C8B}">
+    <text>툴 윈도우에 보이는 아이템 이름</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2024-06-22T16:23:26.79" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}">
+    <text>아이템 타입
+랜덤: 레시피의 여러개 중 확률에 따라 드롭 
+노말: 그 아이템만 드롭</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2024-06-22T16:24:02.96" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{AE05160C-9E3D-41F9-9566-25019330FE76}">
+    <text>아이템 이미지 리소스 경로</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2024-06-22T16:23:51.80" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
+    <text xml:space="preserve">랜덤: 알맞은 레시피 코드 입력
+노말: -1
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,6 +577,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -492,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,18 +646,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,6 +710,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,10 +723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,6 +761,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C6AF7-5ECF-4B60-A9CD-B572B7155648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B9521E-A7F1-4950-A3C2-2AAE8128980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,8 +31,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={96CCBD2A-FD15-4B27-BFF3-2897A9130C8B}</author>
-    <author>tc={FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}</author>
-    <author>tc={AE05160C-9E3D-41F9-9566-25019330FE76}</author>
+    <author>tc={5B635165-1A43-4106-A14B-956A0B227FB0}</author>
+    <author>tc={53EA8211-947F-4421-B36A-916C864FC3A5}</author>
     <author>tc={780ED352-B9AB-4AEE-AA4E-A530552E9099}</author>
   </authors>
   <commentList>
@@ -44,7 +44,15 @@
     툴 윈도우에 보이는 아이템 이름</t>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}">
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{5B635165-1A43-4106-A14B-956A0B227FB0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 이미지 리소스 경로</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{53EA8211-947F-4421-B36A-916C864FC3A5}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -54,14 +62,6 @@
 노말: 그 아이템만 드롭</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{AE05160C-9E3D-41F9-9566-25019330FE76}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템 이미지 리소스 경로</t>
-      </text>
-    </comment>
     <comment ref="D2" authorId="3" shapeId="0" xr:uid="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
       <text>
         <t xml:space="preserve">[스레드 댓글]
@@ -69,6 +69,11 @@
 댓글:
     랜덤: 알맞은 레시피 코드 입력
 노말: -1
+답글:
+    확률의 합은 100.
+각 확률은 정수.
+원하는 드롭 확률을 게재
+소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
 </t>
       </text>
     </comment>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fieldIconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +177,14 @@
   </si>
   <si>
     <t>#무기 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionParameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanAccessory:30/GreatSword:70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +206,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,6 +255,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="박솔휘 [Park, Solhwi]" id="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" userId="S::psh50zmfhtm@neople.co.kr::763decc3-e1b2-4a9c-a8c1-b8eff7c54800" providerId="AD"/>
   <person displayName="유지현" id="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
 </personList>
 </file>
@@ -514,17 +526,24 @@
   <threadedComment ref="A2" dT="2024-06-22T16:22:40.23" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{96CCBD2A-FD15-4B27-BFF3-2897A9130C8B}">
     <text>툴 윈도우에 보이는 아이템 이름</text>
   </threadedComment>
-  <threadedComment ref="B2" dT="2024-06-22T16:23:26.79" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{FCEE591A-F3B2-47B5-9381-C02DE6CE6F94}">
+  <threadedComment ref="B2" dT="2024-06-22T16:24:02.96" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{5B635165-1A43-4106-A14B-956A0B227FB0}">
+    <text>아이템 이미지 리소스 경로</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2024-06-22T16:23:26.79" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{53EA8211-947F-4421-B36A-916C864FC3A5}">
     <text>아이템 타입
 랜덤: 레시피의 여러개 중 확률에 따라 드롭 
 노말: 그 아이템만 드롭</text>
   </threadedComment>
-  <threadedComment ref="C2" dT="2024-06-22T16:24:02.96" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{AE05160C-9E3D-41F9-9566-25019330FE76}">
-    <text>아이템 이미지 리소스 경로</text>
-  </threadedComment>
   <threadedComment ref="D2" dT="2024-06-22T16:23:51.80" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
     <text xml:space="preserve">랜덤: 알맞은 레시피 코드 입력
 노말: -1
+</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2024-06-26T14:27:31.33" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{DEB94CC5-BD6F-449F-940F-1ECE5E796577}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
+    <text xml:space="preserve">확률의 합은 100.
+각 확률은 정수.
+원하는 드롭 확률을 게재
+소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -558,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,12 +593,12 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -593,15 +612,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,18 +656,18 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +731,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +782,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B9521E-A7F1-4950-A3C2-2AAE8128980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA8290-E2BA-471A-AD39-852FF829CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,17 +64,20 @@
     </comment>
     <comment ref="D2" authorId="3" shapeId="0" xr:uid="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
       <text>
-        <t xml:space="preserve">[스레드 댓글]
+        <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     랜덤: 알맞은 레시피 코드 입력
 노말: -1
 답글:
-    확률의 합은 100.
+Random :
+확률의 합은 100.
 각 확률은 정수.
 원하는 드롭 확률을 게재
 소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
-</t>
+답글:
+Normal :
+빈 칸으로 넣어두면 됨</t>
       </text>
     </comment>
   </commentList>
@@ -192,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,12 +209,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,11 +537,18 @@
 </text>
   </threadedComment>
   <threadedComment ref="D2" dT="2024-06-26T14:27:31.33" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{DEB94CC5-BD6F-449F-940F-1ECE5E796577}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
-    <text xml:space="preserve">확률의 합은 100.
+    <text xml:space="preserve">
+Random :
+확률의 합은 100.
 각 확률은 정수.
 원하는 드롭 확률을 게재
 소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
 </text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2024-06-26T14:38:45.91" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{ECF013F5-3C3A-4C7D-8C79-5E9D8D2706E2}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
+    <text xml:space="preserve">
+Normal :
+빈 칸으로 넣어두면 됨</text>
   </threadedComment>
 </ThreadedComments>
 </file>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA8290-E2BA-471A-AD39-852FF829CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ED685-6C6F-4D60-A049-3873818ABB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,8 +76,7 @@
 원하는 드롭 확률을 게재
 소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
 답글:
-Normal :
-빈 칸으로 넣어두면 됨</t>
+Normal : -1</t>
       </text>
     </comment>
   </commentList>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/Sprites/Ryo.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#상점템 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +183,22 @@
   </si>
   <si>
     <t>UnityChanAccessory:30/GreatSword:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprites/Coin.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/AnimationController/DropItem/Box.controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +558,7 @@
   </threadedComment>
   <threadedComment ref="D2" dT="2024-06-26T14:38:45.91" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{ECF013F5-3C3A-4C7D-8C79-5E9D8D2706E2}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
     <text xml:space="preserve">
-Normal :
-빈 칸으로 넣어두면 됨</text>
+Normal : -1</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -602,7 +612,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -613,16 +623,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
@@ -652,26 +662,40 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +759,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +810,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ED685-6C6F-4D60-A049-3873818ABB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C36A900-B607-4D33-9303-0DC89E101BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C36A900-B607-4D33-9303-0DC89E101BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E9796-5DBE-4C2F-9755-B712920C3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="1116" windowWidth="21024" windowHeight="10080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#무기 제외한 장비 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#무기 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,98 @@
   </si>
   <si>
     <t>Assets/Resources/AnimationController/DropItem/Box.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisakiAccessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisakiBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanHair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoHair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisakiHair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># CharacterType : UnityChan, Yuco, Misaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># CharacterPartsType : Body / Accessory / Hair / Eye / Face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 무기 제외한 장비 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisakiEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnityChanFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisakiFace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,14 +659,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -602,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -610,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -625,19 +713,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -662,38 +750,38 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -707,24 +795,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -746,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -757,9 +845,173 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +1028,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -800,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -808,9 +1060,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E9796-5DBE-4C2F-9755-B712920C3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F6A25-B9B9-4B78-9312-D08DC5D93923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1116" windowWidth="21024" windowHeight="10080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -795,10 +795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -812,7 +812,7 @@
     <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -855,8 +855,11 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -866,8 +869,11 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -877,8 +883,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -889,7 +898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -900,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -911,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -922,7 +931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -933,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -944,7 +953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -955,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -966,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -977,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -997,21 +1006,6 @@
       </c>
       <c r="C17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1036,7 +1030,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1052,16 +1046,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F6A25-B9B9-4B78-9312-D08DC5D93923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252CED1-4C8F-4592-A838-C87699F09F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8730" yWindow="1110" windowWidth="13725" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,46 @@
   </si>
   <si>
     <t>MisakiFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRandom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,54 +693,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -713,19 +851,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -753,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -767,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -781,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -801,18 +939,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -845,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -859,7 +997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -873,7 +1011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -887,7 +1025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -898,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -909,7 +1047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -920,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -931,7 +1069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -942,7 +1080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -953,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -964,7 +1102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -975,7 +1113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -986,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -997,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1022,15 +1160,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252CED1-4C8F-4592-A838-C87699F09F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D06310-7129-4D39-BF72-1D36FBBDDD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="1110" windowWidth="13725" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/Sprites/Coin.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/AnimationController/DropItem/Box.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YucoAccessory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +315,14 @@
   </si>
   <si>
     <t>Dummy8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Coin.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationController/DropItem/Box.controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,13 +692,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -714,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -733,13 +729,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -747,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -755,10 +751,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -766,10 +762,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -777,10 +773,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -788,10 +784,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -799,10 +795,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -810,10 +806,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -821,10 +817,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -832,10 +828,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -851,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,18 +884,18 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -910,18 +906,18 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -985,74 +981,74 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1060,32 +1056,32 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1093,32 +1089,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1126,24 +1122,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D06310-7129-4D39-BF72-1D36FBBDDD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82B3EF-5C03-42E8-82E9-D9F8F764B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
-    <sheet name="DropItemData" sheetId="4" r:id="rId2"/>
-    <sheet name="PartsItemData" sheetId="1" r:id="rId3"/>
-    <sheet name="PropItemData" sheetId="2" r:id="rId4"/>
+    <sheet name="ItemIconData" sheetId="6" r:id="rId2"/>
+    <sheet name="DropItemData" sheetId="4" r:id="rId3"/>
+    <sheet name="PartsItemData" sheetId="1" r:id="rId4"/>
+    <sheet name="PropItemData" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shopIconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +320,10 @@
   </si>
   <si>
     <t>AnimationController/DropItem/Box.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,10 +708,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,122 +716,89 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
@@ -844,6 +809,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -884,18 +965,18 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -906,18 +987,18 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +1008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -981,74 +1062,74 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1056,32 +1137,32 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1089,32 +1170,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1122,24 +1203,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1188,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82B3EF-5C03-42E8-82E9-D9F8F764B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3379AE-07C8-47CB-840F-CA88A2271C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
-    <sheet name="ItemIconData" sheetId="6" r:id="rId2"/>
-    <sheet name="DropItemData" sheetId="4" r:id="rId3"/>
-    <sheet name="PartsItemData" sheetId="1" r:id="rId4"/>
-    <sheet name="PropItemData" sheetId="2" r:id="rId5"/>
+    <sheet name="PartsItemData" sheetId="1" r:id="rId2"/>
+    <sheet name="PropItemData" sheetId="2" r:id="rId3"/>
+    <sheet name="ItemIconData" sheetId="6" r:id="rId4"/>
+    <sheet name="DropItemData" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>iconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 모든 아이템의 아이콘 지정해줌 (상점/인벤 상관 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># itemCode로 고유 값 구별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># isRandom 1이면 가챠아이템, 0이면 일반 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,13 +705,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,6 +748,9 @@
       </c>
       <c r="B4">
         <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,206 +824,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1229,7 +1044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1276,4 +1091,210 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3379AE-07C8-47CB-840F-CA88A2271C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B02395-AA5C-49A8-A09E-321F70C881F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,14 @@
   </si>
   <si>
     <t># isRandom 1이면 가챠아이템, 0이면 일반 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon_Chest_Gold.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon_Chest_Wood.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +713,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +836,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1106,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -1150,7 +1158,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B02395-AA5C-49A8-A09E-321F70C881F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3B249-F8A8-4DFE-83E4-994EE5BD7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,54 @@
   </si>
   <si>
     <t>Sprites/ItemIcon_Chest_Wood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 머리끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 원한의 소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 나무 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 가죽 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹슨 철 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍화된 뼈 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝겊 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최하급 경화제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최하급 연석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,6 +778,9 @@
       <c r="B1" t="s">
         <v>48</v>
       </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -738,6 +789,9 @@
       <c r="B2" t="s">
         <v>47</v>
       </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -746,6 +800,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -757,6 +814,9 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
@@ -768,6 +828,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -776,6 +839,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -784,6 +850,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -792,6 +861,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>2500</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -800,6 +872,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -808,6 +883,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -816,6 +894,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <v>12000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -823,6 +904,9 @@
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+      <c r="C12">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -1105,14 +1189,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1122,6 +1207,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1130,6 +1218,9 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1138,6 +1229,9 @@
       <c r="B3" t="s">
         <v>63</v>
       </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
@@ -1149,6 +1243,9 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
@@ -1160,6 +1257,9 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1168,6 +1268,9 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1176,6 +1279,9 @@
       <c r="B7" t="s">
         <v>57</v>
       </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1184,6 +1290,9 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1192,6 +1301,9 @@
       <c r="B9" t="s">
         <v>57</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1200,6 +1312,9 @@
       <c r="B10" t="s">
         <v>57</v>
       </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1208,6 +1323,9 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1215,6 +1333,9 @@
       </c>
       <c r="B12" t="s">
         <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3B249-F8A8-4DFE-83E4-994EE5BD7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467EF4D9-7793-4633-A576-17B2A5AB4066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,94 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이름 모를 해적의 원한이 담긴 검 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 모를 동물의 가죽이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 녹슨 철이다. 쓸 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 모를 동물의 뼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금방이라도 부숴질 듯한 나무 상자다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 관리된 나무 상자다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 쨩이 쓰던 노란 머리끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝겊 조각이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에 쓰는 물건일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에 쓰는 물건인고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopItemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 전까지 제가 쓰던\n머리띠에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력이 느껴지는 푸른 검\n이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 상자에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열심히 관리한 나무 상자에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡동사니네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹다 남은 치킨 뼈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불이 없을 때 딱이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 머드라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 뭐였는 지 기억이 잘…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 소 가죽이에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +849,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,6 +857,8 @@
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,6 +871,9 @@
       <c r="C1" t="s">
         <v>48</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -792,6 +885,9 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -803,6 +899,9 @@
       <c r="C3">
         <v>30000</v>
       </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -817,6 +916,9 @@
       <c r="C4">
         <v>50000</v>
       </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
@@ -831,6 +933,9 @@
       <c r="C5">
         <v>1000</v>
       </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -842,6 +947,9 @@
       <c r="C6">
         <v>2000</v>
       </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -853,6 +961,9 @@
       <c r="C7">
         <v>1200</v>
       </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -864,6 +975,9 @@
       <c r="C8">
         <v>2500</v>
       </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -875,6 +989,9 @@
       <c r="C9">
         <v>3000</v>
       </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -886,6 +1003,9 @@
       <c r="C10">
         <v>5000</v>
       </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -897,6 +1017,9 @@
       <c r="C11">
         <v>12000</v>
       </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -907,6 +1030,9 @@
       </c>
       <c r="C12">
         <v>8000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1198,9 +1324,11 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,8 +1338,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1221,8 +1352,11 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1233,10 +1367,13 @@
         <v>66</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1247,10 +1384,13 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1260,8 +1400,11 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1271,8 +1414,11 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1282,8 +1428,11 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1293,8 +1442,11 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1304,8 +1456,11 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1315,8 +1470,11 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1326,8 +1484,11 @@
       <c r="C11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1336,6 +1497,9 @@
       </c>
       <c r="C12" t="s">
         <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467EF4D9-7793-4633-A576-17B2A5AB4066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E37124-476A-409D-B4DB-7B17215E2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="1116" windowWidth="11628" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,13 @@
   <si>
     <t>오래된 소 가죽이에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwinDagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwinDagger_L</t>
   </si>
 </sst>
 </file>
@@ -848,20 +855,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -889,7 +896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -906,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -923,7 +930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -937,7 +944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -951,7 +958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -965,7 +972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -979,7 +986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1049,18 +1056,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1190,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1264,21 +1271,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1303,6 +1310,14 @@
       </c>
       <c r="C3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1319,16 +1334,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1516,15 +1531,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E37124-476A-409D-B4DB-7B17215E2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95888B6C-5505-4F93-B422-2387FD4A8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1116" windowWidth="11628" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,53 @@
   </si>
   <si>
     <t>TwinDagger_L</t>
+  </si>
+  <si>
+    <t>Sprites/Costume_A</t>
+  </si>
+  <si>
+    <t>Sprites/Costume_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Costume_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱이 좋아하는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코가 매일 입는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키가 매일 입는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 제일 좋아하는 옷이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코는 항상 겉옷을 입고 다녀요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키는 매일 이것만 입더라고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,22 +900,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -896,7 +943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -913,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -930,7 +977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -944,7 +991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -958,7 +1005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -972,7 +1019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -986,7 +1033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1000,7 +1047,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1014,7 +1061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1028,7 +1075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1040,6 +1087,48 @@
       </c>
       <c r="D12" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>30000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>30000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>30000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1053,21 +1142,21 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1153,7 +1242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1175,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1186,7 +1275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1219,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1252,7 +1341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1273,19 +1362,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1328,22 +1417,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="32.59765625" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
-    <col min="4" max="4" width="31.8984375" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1419,7 +1508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1433,7 +1522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1447,7 +1536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1461,7 +1550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1475,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1489,7 +1578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1503,7 +1592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1515,6 +1604,48 @@
       </c>
       <c r="D12" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1531,15 +1662,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95888B6C-5505-4F93-B422-2387FD4A8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58ED4D6-0B1E-4830-8962-490BDE8718E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -490,50 +490,51 @@
     <t>TwinDagger_L</t>
   </si>
   <si>
+    <t>Sprites/Costume_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Costume_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 바디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱이 좋아하는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코가 매일 입는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키가 매일 입는 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 제일 좋아하는 옷이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코는 항상 겉옷을 입고 다녀요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키는 매일 이것만 입더라고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Sprites/Costume_A</t>
-  </si>
-  <si>
-    <t>Sprites/Costume_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Costume_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱이 좋아하는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코가 매일 입는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키가 매일 입는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 제일 좋아하는 옷이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코는 항상 겉옷을 입고 다녀요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키는 매일 이것만 입더라고요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1101,7 @@
         <v>30000</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,7 +1115,7 @@
         <v>30000</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1128,7 +1129,7 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1419,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,13 +1612,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1625,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1639,13 +1640,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58ED4D6-0B1E-4830-8962-490BDE8718E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F1DF3-F79B-4966-85CC-DB2E7143535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,14 +490,6 @@
     <t>TwinDagger_L</t>
   </si>
   <si>
-    <t>Sprites/Costume_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Costume_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티짱 바디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,7 +526,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Costume_A</t>
+    <t>Sprites/ItemIcon/Costume_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각을 하는지 알 수 없는 표정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한 표정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱의 활기찬 표정!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑고 푸른 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑고 깊은 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유코 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단정한 반묶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여운 양갈래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 숏컷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1209,7 @@
         <v>30000</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1223,7 @@
         <v>30000</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,7 +1237,7 @@
         <v>30000</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1251,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1612,13 +1720,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,13 +1734,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1643,10 +1751,136 @@
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F1DF3-F79B-4966-85CC-DB2E7143535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3224AB8-2B28-458F-94C2-3CDE3046EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,38 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dummy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprites/Coin.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,58 +307,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon_Chest_Gold.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon_Chest_Wood.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노란 머리끈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>푸른 원한의 소드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 나무 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 가죽 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹슨 철 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍화된 뼈 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헝겊 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최하급 경화제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최하급 연석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,42 +327,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름 모를 동물의 가죽이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많이 녹슨 철이다. 쓸 수 있을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 모를 동물의 뼈다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금방이라도 부숴질 듯한 나무 상자다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 관리된 나무 상자다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티 쨩이 쓰던 노란 머리끈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헝겊 조각이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디에 쓰는 물건일까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디에 쓰는 물건인고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shopItemDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,38 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 상자에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열심히 관리한 나무 상자에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡동사니네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹다 남은 치킨 뼈에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이불이 없을 때 딱이죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 머드라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 뭐였는 지 기억이 잘…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오래된 소 가죽이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TwinDagger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,14 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 생각을 하는지 알 수 없는 표정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상냥한 표정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprites/ItemIcon/Eye_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +495,72 @@
   </si>
   <si>
     <t>차분한 숏컷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 베놈 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이스트 댓 핑크 베놈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 핑크 인 유어 에리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YucoAccessory</t>
+  </si>
+  <si>
+    <t>MisakiAccessory</t>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 머리띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 머리띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리본 헤어핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀가 네 개가 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각을 하는지 알 수 없는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +578,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -686,8 +612,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1009,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,10 +973,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,7 +990,7 @@
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1080,164 +1007,66 @@
         <v>50000</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>5000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>12000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>8000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>30000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>30000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>30000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1080,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1301,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1512,10 +1341,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1526,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,327 +1389,257 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1952,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3224AB8-2B28-458F-94C2-3CDE3046EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667654D5-6FBC-47D3-B991-B91B0CBA057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,10 @@
   </si>
   <si>
     <t>패션 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +943,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1355,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,10 +1371,10 @@
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1387,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1397,8 +1404,11 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1411,11 +1421,14 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1428,11 +1441,14 @@
       <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1445,8 +1461,11 @@
       <c r="D5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1459,8 +1478,11 @@
       <c r="D6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1473,8 +1495,11 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1487,8 +1512,11 @@
       <c r="D8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1501,8 +1529,11 @@
       <c r="D9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1515,8 +1546,11 @@
       <c r="D10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1529,8 +1563,11 @@
       <c r="D11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="D12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1557,8 +1597,11 @@
       <c r="D13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1571,8 +1614,11 @@
       <c r="D14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1585,8 +1631,11 @@
       <c r="D15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1599,8 +1648,11 @@
       <c r="D16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1613,8 +1665,11 @@
       <c r="D17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -1627,8 +1682,11 @@
       <c r="D18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -1640,6 +1698,9 @@
       </c>
       <c r="D19" t="s">
         <v>119</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667654D5-6FBC-47D3-B991-B91B0CBA057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A6DEF-EDFA-4CE6-8F40-6D80798B40C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
     <sheet name="PartsItemData" sheetId="1" r:id="rId2"/>
     <sheet name="PropItemData" sheetId="2" r:id="rId3"/>
-    <sheet name="ItemIconData" sheetId="6" r:id="rId4"/>
+    <sheet name="ItemToolTipData" sheetId="6" r:id="rId4"/>
     <sheet name="DropItemData" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A6DEF-EDFA-4CE6-8F40-6D80798B40C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A481E246-B9CA-497C-AC61-72F42C659B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,70 @@
   </si>
   <si>
     <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메리 크리스마스!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으스스한 분위기를 줄 수 있는 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티짱의 초상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키의 초상화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1700,6 +1764,74 @@
         <v>119</v>
       </c>
       <c r="E19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23">
         <v>1000</v>
       </c>
     </row>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A481E246-B9CA-497C-AC61-72F42C659B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CD971-62DD-43CB-A4F0-BCADCD3EA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="PropItemData" sheetId="2" r:id="rId3"/>
     <sheet name="ItemToolTipData" sheetId="6" r:id="rId4"/>
     <sheet name="DropItemData" sheetId="4" r:id="rId5"/>
+    <sheet name="ProfileItemData" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,8 +85,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={54B5BA2A-77ED-42FB-A091-8CC23650A43F}</author>
+    <author>tc={F490CB0D-4D20-462E-B709-D27716AF61B1}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{54B5BA2A-77ED-42FB-A091-8CC23650A43F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    툴 윈도우에 보이는 아이템 이름</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{F490CB0D-4D20-462E-B709-D27716AF61B1}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 이미지 리소스 경로</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +657,10 @@
   </si>
   <si>
     <t>미사키의 초상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,6 +1034,17 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-06-22T16:22:40.23" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{54B5BA2A-77ED-42FB-A091-8CC23650A43F}">
+    <text>툴 윈도우에 보이는 아이템 이름</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2024-06-22T16:24:02.96" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{F490CB0D-4D20-462E-B709-D27716AF61B1}">
+    <text>아이템 이미지 리소스 경로</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E8"/>
@@ -1426,7 +1469,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1846,7 +1889,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1923,4 +1966,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AD892-11F9-4283-B8F4-46E0E23154A5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CD971-62DD-43CB-A4F0-BCADCD3EA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E68AC5-92D4-4599-8675-98205E17354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
     <sheet name="PartsItemData" sheetId="1" r:id="rId2"/>
     <sheet name="PropItemData" sheetId="2" r:id="rId3"/>
     <sheet name="ItemToolTipData" sheetId="6" r:id="rId4"/>
-    <sheet name="DropItemData" sheetId="4" r:id="rId5"/>
+    <sheet name="FieldItemData" sheetId="4" r:id="rId5"/>
     <sheet name="ProfileItemData" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DropActionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropActionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fieldIconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AnimationController/DropItem/Box.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,6 +645,50 @@
   </si>
   <si>
     <t>isFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationController/FieldItem/Box.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ShopItem_l_CoinPack_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Icon_GradeBadge_Challenger.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색 바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색인 바나나다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1081,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,10 +1129,10 @@
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1118,15 +1146,15 @@
         <v>50000</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1135,12 +1163,12 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1149,12 +1177,12 @@
         <v>30000</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1163,12 +1191,12 @@
         <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1177,7 +1205,7 @@
         <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1240,74 +1268,74 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1315,32 +1343,32 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1348,32 +1376,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1381,24 +1409,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1447,15 +1475,15 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1466,16 +1494,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="5" width="25.875" customWidth="1"/>
@@ -1495,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,16 +1531,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1520,53 +1548,53 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1574,16 +1602,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1591,16 +1619,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1608,16 +1636,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1625,16 +1653,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1642,16 +1670,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1659,16 +1687,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1676,16 +1704,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1693,16 +1721,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -1710,16 +1738,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -1727,16 +1755,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -1744,16 +1772,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1764,13 +1792,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -1778,16 +1806,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -1795,16 +1823,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -1812,16 +1840,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -1829,16 +1857,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>126</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -1846,16 +1874,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
         <v>123</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -1863,18 +1891,52 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="E23">
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
         <v>1000</v>
       </c>
     </row>
@@ -1886,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1900,7 +1962,7 @@
     <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1908,57 +1970,83 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1995,12 +2083,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2008,7 +2096,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2016,7 +2104,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2024,7 +2112,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E68AC5-92D4-4599-8675-98205E17354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF25E7-8354-420E-8F39-564BE9B2B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,21 @@
     <sheet name="FieldItemData" sheetId="4" r:id="rId5"/>
     <sheet name="ProfileItemData" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +700,10 @@
   </si>
   <si>
     <t>녹색인 바나나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-5/Max:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1966,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1960,6 +1975,7 @@
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,8 +2047,8 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5">
-        <v>-1</v>
+      <c r="D5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2045,8 +2061,8 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6">
-        <v>-1</v>
+      <c r="D6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF25E7-8354-420E-8F39-564BE9B2B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE315571-440C-49AD-B6B1-B195FE40FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,7 +703,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min:-5/Max:5</t>
+    <t>Min:-5/Max:5/-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1963,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2048,20 +2048,6 @@
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE315571-440C-49AD-B6B1-B195FE40FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27792B9-D3D1-4B3C-B2CB-1EC33AC8D4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,7 +703,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min:-5/Max:5/-2</t>
+    <t>맛있는 바나나!\n… 를 먹고 남은 껍질이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-15/Max:15/-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barricade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon_Chest_Wood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감쪽같은 가짜 보물상자예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무도 그냥 지나칠 수 없는 가짜 보물상자. 열어보기 전까지는 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1234,7 @@
         <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1248,35 @@
         <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1290,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1576,7 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1952,6 +2008,23 @@
         <v>144</v>
       </c>
       <c r="E25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26">
         <v>1000</v>
       </c>
     </row>
@@ -1963,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2121,21 @@
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27792B9-D3D1-4B3C-B2CB-1EC33AC8D4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7CB4F-9488-424E-BF88-840DCD186DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="PropItemData" sheetId="2" r:id="rId3"/>
     <sheet name="ItemToolTipData" sheetId="6" r:id="rId4"/>
     <sheet name="FieldItemData" sheetId="4" r:id="rId5"/>
-    <sheet name="ProfileItemData" sheetId="7" r:id="rId6"/>
+    <sheet name="BuffItemData" sheetId="8" r:id="rId6"/>
+    <sheet name="ProfileItemData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +733,26 @@
   </si>
   <si>
     <t>Min:-100/Max:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoreDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffIconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2039,7 +2060,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2146,6 +2167,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="48.75" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AD892-11F9-4283-B8F4-46E0E23154A5}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7CB4F-9488-424E-BF88-840DCD186DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ECCA9A-8A37-4657-9129-5956BD257FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,6 +753,21 @@
   </si>
   <si>
     <t>buffIconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleDice</t>
+  </si>
+  <si>
+    <t>두배 주사위 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두배두배</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,6 +1313,20 @@
       </c>
       <c r="D10" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2049,6 +2078,23 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2170,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ECCA9A-8A37-4657-9129-5956BD257FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD494D5-2360-4AFD-8126-83F2B5D79B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +768,26 @@
   </si>
   <si>
     <t>두배두배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1558,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,6 +1625,46 @@
       </c>
       <c r="B4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD494D5-2360-4AFD-8126-83F2B5D79B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B74D18-155C-4526-8814-1CEDC4C8A609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1628,40 +1628,40 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
+      <c r="A7" t="s">
+        <v>164</v>
       </c>
       <c r="B7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
+      <c r="A8" t="s">
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>166</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B74D18-155C-4526-8814-1CEDC4C8A609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299ACCE-B1CA-4234-B6D4-C4779AC8985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -410,30 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Costume_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Costume_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Costume_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티짱 페이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,18 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Eye_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Eye_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Eye_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티짱 눈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,18 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Hair_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Hair_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Hair_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티짱 헤어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,14 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Prop_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Prop_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핑크 베놈 단검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,24 +486,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Acc_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YucoAccessory</t>
   </si>
   <si>
     <t>MisakiAccessory</t>
   </si>
   <si>
-    <t>Sprites/ItemIcon/Acc_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Acc_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노란 머리띠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,22 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Profile/Frame_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Frame_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Profile_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Profile_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크리스마스 프레임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +704,90 @@
   </si>
   <si>
     <t>Net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_A.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1262,7 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1318,12 +1318,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1332,12 +1332,12 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A241D-11AA-458B-A9E4-7769CAC77567}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1629,42 +1629,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1721,7 +1721,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -1749,13 +1749,13 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1786,7 +1786,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1803,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -1820,13 +1820,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1837,13 +1837,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1854,13 +1854,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1871,13 +1871,13 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1888,13 +1888,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1905,13 +1905,13 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -1922,13 +1922,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -1939,13 +1939,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -1956,13 +1956,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1973,10 +1973,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -1987,16 +1987,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2089,16 +2089,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2165,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -2228,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2239,30 +2239,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2364,12 +2364,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299ACCE-B1CA-4234-B6D4-C4779AC8985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6B95D-4B64-46E9-937C-898C027D3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Coin.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +784,10 @@
   </si>
   <si>
     <t>Sprites/ItemIcon/Face_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon_Badge_Gold.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,10 +1211,10 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1245,15 +1245,15 @@
         <v>50000</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
         <v>30000</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,12 +1304,12 @@
         <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1318,12 +1318,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1332,12 +1332,12 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1621,50 +1621,50 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1712,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,39 +1729,39 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,13 +1769,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1786,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1803,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1820,13 +1820,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1837,13 +1837,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1854,13 +1854,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1871,13 +1871,13 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1888,13 +1888,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1905,13 +1905,13 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -1922,13 +1922,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -1939,13 +1939,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -1956,13 +1956,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1973,13 +1973,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -1987,16 +1987,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2089,16 +2089,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
-        <v>121</v>
-      </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
         <v>118</v>
       </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
       <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
         <v>122</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
         <v>126</v>
       </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
       <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
         <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2165,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2228,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2239,30 +2239,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2364,12 +2364,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Assets/Excels/ItemTable.xlsx
+++ b/Assets/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6B95D-4B64-46E9-937C-898C027D3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B4630-8C11-42FB-968C-62C47C1CF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27540" yWindow="10770" windowWidth="13725" windowHeight="6585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AnimationController/FieldItem/Box.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +784,10 @@
   </si>
   <si>
     <t>Sprites/ItemIcon_Badge_Gold.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/FieldItem/Box.controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,12 +1318,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1332,12 +1332,12 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1629,42 +1629,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1749,7 +1749,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1786,7 +1786,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1803,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1820,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1837,7 +1837,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -1854,7 +1854,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -1888,7 +1888,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -1905,7 +1905,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -1922,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
@@ -1939,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -1956,7 +1956,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -1973,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1990,7 +1990,7 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -2007,7 +2007,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -2024,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -2041,7 +2041,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -2058,7 +2058,7 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -2075,7 +2075,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -2092,13 +2092,13 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
       <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
         <v>121</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
       <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2228,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2242,27 +2242,27 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>113</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
